--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="1479">
   <si>
     <t>username</t>
   </si>
@@ -18310,7 +18310,7 @@
         <v>725</v>
       </c>
       <c r="F3" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
